--- a/Test3/FileLocation/Students.xlsx
+++ b/Test3/FileLocation/Students.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Id</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>Cell Number</t>
-  </si>
-  <si>
-    <t>New Guy 2</t>
-  </si>
-  <si>
-    <t>New guy 2</t>
-  </si>
-  <si>
-    <t>0671764259</t>
   </si>
   <si>
     <t>Test Name</t>
@@ -131,13 +122,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
